--- a/Excel/SpellConfig.xlsx
+++ b/Excel/SpellConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\GoapInET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BEB828-0E7F-494D-92D2-BA8A40EDB92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C39B5-D301-4E72-AE0D-2C203B5AF747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2385" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1290" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="C2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -485,9 +485,9 @@
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/Excel/SpellConfig.xlsx
+++ b/Excel/SpellConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\GoapInET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\GoapInET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C39B5-D301-4E72-AE0D-2C203B5AF747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1290" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1290" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -51,18 +50,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Effects</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>施放效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能打断效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastEffects</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterruptedEffects</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,23 +236,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,23 +271,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -488,15 +461,16 @@
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -507,10 +481,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -521,10 +498,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -535,15 +515,18 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>

--- a/Excel/SpellConfig.xlsx
+++ b/Excel/SpellConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>施放效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>技能打断效果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -63,6 +59,23 @@
   </si>
   <si>
     <t>InterruptedEffects</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施放效果 
+等待毫秒数， 效果Index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanInterrpted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否被打断</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -132,16 +145,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G8"/>
+  <dimension ref="C2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -460,77 +480,89 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="28.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:8" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
